--- a/pabi_account_report/xlsx_template/xlsx_report_gl_expenditure.xlsx
+++ b/pabi_account_report/xlsx_template/xlsx_report_gl_expenditure.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="79">
   <si>
     <t xml:space="preserve">Expenditure Report</t>
   </si>
@@ -257,9 +257,6 @@
   </si>
   <si>
     <t xml:space="preserve">Payment Export</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reconcile</t>
   </si>
 </sst>
 </file>
@@ -360,7 +357,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="13">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -410,10 +407,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -434,7 +427,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:BJ21"/>
+  <dimension ref="A1:BI21"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
@@ -500,8 +493,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="59" min="59" style="0" width="25.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="60" min="60" style="0" width="22.51"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="61" min="61" style="0" width="20.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="62" min="62" style="0" width="17.92"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="63" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="62" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1049,9 +1041,6 @@
       <c r="BI21" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="BJ21" s="13" t="s">
-        <v>79</v>
-      </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
